--- a/serverv2/public/excelfiles/questions.xlsx
+++ b/serverv2/public/excelfiles/questions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt/api/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stan\serverv2\public\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>question</t>
   </si>
@@ -75,12 +75,15 @@
   </si>
   <si>
     <t>fatai</t>
+  </si>
+  <si>
+    <t>qid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -121,6 +124,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,115 +395,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
